--- a/database/industries/ghaza/gheshasfa/product/monthly.xlsx
+++ b/database/industries/ghaza/gheshasfa/product/monthly.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\product\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C0A2C-4511-43F1-A70F-8E5C0BC30DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +254,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -294,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +340,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,6 +392,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,14 +585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -579,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -639,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -659,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -679,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -739,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -779,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -839,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -859,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -879,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -899,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -919,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -939,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -959,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -979,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1019,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1119,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1139,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1179,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1259,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1329,7 @@
         <v>156150</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1339,7 +1389,7 @@
         <v>16956</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1359,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1379,7 +1429,7 @@
         <v>15868</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1509,7 @@
         <v>39074</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1479,7 +1529,7 @@
         <v>93689</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1549,7 @@
         <v>20572</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1519,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1539,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
